--- a/final_project/qso320_final_project_raw_data_set.xlsx
+++ b/final_project/qso320_final_project_raw_data_set.xlsx
@@ -15,11 +15,14 @@
     <sheet name="qso320_final_project_raw_data_s" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId2"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="24">
   <si>
     <t>Sales</t>
   </si>
@@ -80,12 +83,25 @@
   <si>
     <t>Jan</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Sales</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -134,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,11 +168,39 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -167,6 +211,3361 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[qso320_final_project_raw_data_set.xlsx]qso320_final_project_raw_data_s!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Red Wine - Last 6 Months</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t>By Sales Rep</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$J$5:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qso320_final_project_raw_data_s!$K$5:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="463081344"/>
+        <c:axId val="463080952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="463081344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales Representative</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463080952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463080952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463081344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[qso320_final_project_raw_data_set.xlsx]qso320_final_project_raw_data_s!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Wine - Last 6 Months</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t>by Wine Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$G$30:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qso320_final_project_raw_data_s!$H$30:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>166174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>301704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="461649000"/>
+        <c:axId val="461650960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="461649000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wine Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461650960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461650960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461649000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard Lusch" refreshedDate="43108.811998379628" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="102">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1048576" sheet="qso320_final_project_raw_data_s"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3020" maxValue="11959"/>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Los Angeles"/>
+        <s v="San Francisco"/>
+        <s v="San Diego"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="Feb"/>
+        <s v="Jun"/>
+        <s v="May"/>
+        <s v="Apr"/>
+        <s v="Mar"/>
+        <s v="Jan"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales Rep" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Bill"/>
+        <s v="Joe"/>
+        <s v="Jane"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Type Wine" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Red"/>
+        <s v="Organic"/>
+        <s v="White"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="102">
+  <r>
+    <n v="7451"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11221"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9525"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3986"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="11667"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11649"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9010"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5686"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9121"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8703"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4369"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5936"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="9990"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5217"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5582"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7913"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8581"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7472"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4716"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3020"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="11552"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8507"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8573"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4827"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11146"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10898"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10424"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="6077"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4908"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4652"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7498"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4641"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="10440"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4168"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4031"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4031"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7498"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8305"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4788"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11953"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11482"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11959"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8681"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10399"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11310"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6981"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8758"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9837"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4276"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7515"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10497"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8587"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7373"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8722"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5607"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11029"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="6262"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9432"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6685"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3913"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7642"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9549"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="9014"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7390"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3390"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4670"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8535"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9112"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8197"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3287"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6388"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="9887"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6326"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10694"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="9779"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10157"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5286"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8516"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7177"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="6312"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5546"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5294"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7879"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="6437"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6061"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7763"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5761"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9248"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10919"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11498"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8950"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="9133"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="9332"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5437"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7914"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8559"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8274"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3877"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3407"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5605"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="G29:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="0" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="J4:K8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="0" baseField="3" baseItem="0" numFmtId="5"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G1:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="0" baseField="3" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,9 +3831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -443,10 +3844,18 @@
     <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7265625" customWidth="1"/>
+    <col min="19" max="26" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +3871,20 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>7451</v>
       </c>
@@ -479,8 +3900,20 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9">
+        <v>245921</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>11221</v>
       </c>
@@ -496,8 +3929,14 @@
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9">
+        <v>269805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>9525</v>
       </c>
@@ -513,8 +3952,20 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <v>251513</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3986</v>
       </c>
@@ -530,8 +3981,20 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9">
+        <v>767239</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="10">
+        <v>95536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>11667</v>
       </c>
@@ -547,8 +4010,14 @@
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10">
+        <v>111937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>11649</v>
       </c>
@@ -564,8 +4033,14 @@
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="10">
+        <v>91888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>9010</v>
       </c>
@@ -581,8 +4056,14 @@
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="10">
+        <v>299361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5686</v>
       </c>
@@ -599,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9121</v>
       </c>
@@ -616,7 +4097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>8703</v>
       </c>
@@ -633,7 +4114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>4369</v>
       </c>
@@ -650,7 +4131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>5936</v>
       </c>
@@ -667,7 +4148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>9990</v>
       </c>
@@ -684,7 +4165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>5217</v>
       </c>
@@ -701,7 +4182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>5582</v>
       </c>
@@ -718,7 +4199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>7913</v>
       </c>
@@ -735,7 +4216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>8581</v>
       </c>
@@ -752,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>7472</v>
       </c>
@@ -769,7 +4250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>4716</v>
       </c>
@@ -786,7 +4267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>3020</v>
       </c>
@@ -803,7 +4284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>11552</v>
       </c>
@@ -820,7 +4301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>8507</v>
       </c>
@@ -837,7 +4318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>8573</v>
       </c>
@@ -854,7 +4335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>4827</v>
       </c>
@@ -871,7 +4352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>11146</v>
       </c>
@@ -888,7 +4369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>10898</v>
       </c>
@@ -905,7 +4386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>10424</v>
       </c>
@@ -922,7 +4403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>6077</v>
       </c>
@@ -938,8 +4419,14 @@
       <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>4908</v>
       </c>
@@ -955,8 +4442,14 @@
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="9">
+        <v>166174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>4652</v>
       </c>
@@ -972,8 +4465,14 @@
       <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="9">
+        <v>299361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>7498</v>
       </c>
@@ -989,8 +4488,14 @@
       <c r="E32" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="9">
+        <v>301704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>4641</v>
       </c>
@@ -1006,8 +4511,14 @@
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="9">
+        <v>767239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>10440</v>
       </c>
@@ -1024,7 +4535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>4168</v>
       </c>
@@ -1041,7 +4552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>4031</v>
       </c>
@@ -1058,7 +4569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>4031</v>
       </c>
@@ -1075,7 +4586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>7498</v>
       </c>
@@ -1092,7 +4603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>8305</v>
       </c>
@@ -1109,7 +4620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>4788</v>
       </c>
@@ -1126,7 +4637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>11953</v>
       </c>
@@ -1143,7 +4654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>11482</v>
       </c>
@@ -1160,7 +4671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>11959</v>
       </c>
@@ -1177,7 +4688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>8681</v>
       </c>
@@ -1194,7 +4705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>10399</v>
       </c>
@@ -1211,7 +4722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>11310</v>
       </c>
@@ -1228,7 +4739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>6981</v>
       </c>
@@ -1245,7 +4756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>8758</v>
       </c>
@@ -2169,6 +5680,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/final_project/qso320_final_project_raw_data_set.xlsx
+++ b/final_project/qso320_final_project_raw_data_set.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7890"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="qso320_final_project_raw_data_s" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="28">
   <si>
     <t>Sales</t>
   </si>
@@ -95,14 +96,27 @@
   <si>
     <t>(All)</t>
   </si>
+  <si>
+    <t>Comission</t>
+  </si>
+  <si>
+    <t>Comission Perc</t>
+  </si>
+  <si>
+    <t>Sum of Comission</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -150,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,28 +188,35 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -464,7 +485,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>qso320_final_project_raw_data_s!$K$4</c:f>
+              <c:f>qso320_final_project_raw_data_s!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -544,7 +565,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>qso320_final_project_raw_data_s!$J$5:$J$8</c:f>
+              <c:f>qso320_final_project_raw_data_s!$L$5:$L$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -561,7 +582,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>qso320_final_project_raw_data_s!$K$5:$K$8</c:f>
+              <c:f>qso320_final_project_raw_data_s!$M$5:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -588,11 +609,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="463081344"/>
-        <c:axId val="463080952"/>
+        <c:axId val="476148864"/>
+        <c:axId val="476153568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463081344"/>
+        <c:axId val="476148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463080952"/>
+        <c:crossAx val="476153568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463080952"/>
+        <c:axId val="476153568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463081344"/>
+        <c:crossAx val="476148864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1026,7 +1047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>qso320_final_project_raw_data_s!$H$29</c:f>
+              <c:f>qso320_final_project_raw_data_s!$J$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1106,7 +1127,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>qso320_final_project_raw_data_s!$G$30:$G$33</c:f>
+              <c:f>qso320_final_project_raw_data_s!$I$30:$I$33</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1123,7 +1144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>qso320_final_project_raw_data_s!$H$30:$H$33</c:f>
+              <c:f>qso320_final_project_raw_data_s!$J$30:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1150,11 +1171,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="461649000"/>
-        <c:axId val="461650960"/>
+        <c:axId val="476150040"/>
+        <c:axId val="476149648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="461649000"/>
+        <c:axId val="476150040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461650960"/>
+        <c:crossAx val="476149648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461650960"/>
+        <c:axId val="476149648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461649000"/>
+        <c:crossAx val="476150040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1427,6 +1448,1492 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[qso320_final_project_raw_data_set.xlsx]qso320_final_project_raw_data_s!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Commission per Agent per Month</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>at 5% of Sales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$W$1:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$V$3:$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qso320_final_project_raw_data_s!$W$3:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1726.0500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2429.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3048.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$X$1:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$V$3:$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qso320_final_project_raw_data_s!$X$3:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1531.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2699.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$Y$1:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$V$3:$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qso320_final_project_raw_data_s!$Y$3:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1537.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1909.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1610.3500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$Z$1:$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$V$3:$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qso320_final_project_raw_data_s!$Z$3:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3189.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1932.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1664.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$AA$1:$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$V$3:$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qso320_final_project_raw_data_s!$AA$3:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2369.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2121.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1920.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$AB$1:$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>qso320_final_project_raw_data_s!$V$3:$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qso320_final_project_raw_data_s!$AB$3:$AB$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1330.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3565.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1632.2000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="595997816"/>
+        <c:axId val="595992328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="595997816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales Representative</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595992328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595992328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595997816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1468,6 +2975,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2513,17 +4060,520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -2547,13 +4597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2570,6 +4620,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2631,6 +4711,155 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard Lusch" refreshedDate="43116.892972106485" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="102">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="qso320_final_project_raw_data_s"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3020" maxValue="11959" count="99">
+        <n v="7451"/>
+        <n v="11221"/>
+        <n v="9525"/>
+        <n v="3986"/>
+        <n v="11667"/>
+        <n v="11649"/>
+        <n v="9010"/>
+        <n v="5686"/>
+        <n v="9121"/>
+        <n v="8703"/>
+        <n v="4369"/>
+        <n v="5936"/>
+        <n v="9990"/>
+        <n v="5217"/>
+        <n v="5582"/>
+        <n v="7913"/>
+        <n v="8581"/>
+        <n v="7472"/>
+        <n v="4716"/>
+        <n v="3020"/>
+        <n v="11552"/>
+        <n v="8507"/>
+        <n v="8573"/>
+        <n v="4827"/>
+        <n v="11146"/>
+        <n v="10898"/>
+        <n v="10424"/>
+        <n v="6077"/>
+        <n v="4908"/>
+        <n v="4652"/>
+        <n v="7498"/>
+        <n v="4641"/>
+        <n v="10440"/>
+        <n v="4168"/>
+        <n v="4031"/>
+        <n v="8305"/>
+        <n v="4788"/>
+        <n v="11953"/>
+        <n v="11482"/>
+        <n v="11959"/>
+        <n v="8681"/>
+        <n v="10399"/>
+        <n v="11310"/>
+        <n v="6981"/>
+        <n v="8758"/>
+        <n v="9837"/>
+        <n v="4276"/>
+        <n v="7515"/>
+        <n v="10497"/>
+        <n v="8587"/>
+        <n v="7373"/>
+        <n v="8722"/>
+        <n v="5607"/>
+        <n v="11029"/>
+        <n v="6262"/>
+        <n v="9432"/>
+        <n v="6685"/>
+        <n v="3913"/>
+        <n v="7642"/>
+        <n v="9549"/>
+        <n v="9014"/>
+        <n v="7390"/>
+        <n v="3390"/>
+        <n v="4670"/>
+        <n v="8535"/>
+        <n v="9112"/>
+        <n v="8197"/>
+        <n v="3287"/>
+        <n v="6388"/>
+        <n v="9887"/>
+        <n v="6326"/>
+        <n v="10694"/>
+        <n v="9779"/>
+        <n v="10157"/>
+        <n v="5286"/>
+        <n v="8516"/>
+        <n v="7177"/>
+        <n v="6312"/>
+        <n v="5546"/>
+        <n v="5294"/>
+        <n v="7879"/>
+        <n v="6437"/>
+        <n v="6061"/>
+        <n v="7763"/>
+        <n v="5761"/>
+        <n v="9248"/>
+        <n v="10919"/>
+        <n v="11498"/>
+        <n v="8950"/>
+        <n v="9133"/>
+        <n v="9332"/>
+        <n v="5437"/>
+        <n v="7914"/>
+        <n v="8559"/>
+        <n v="8274"/>
+        <n v="3877"/>
+        <n v="3407"/>
+        <n v="5605"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="Feb"/>
+        <s v="Jun"/>
+        <s v="May"/>
+        <s v="Apr"/>
+        <s v="Mar"/>
+        <s v="Jan"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales Rep" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Bill"/>
+        <s v="Joe"/>
+        <s v="Jane"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Type Wine" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Comission Perc" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.05" maxValue="0.05"/>
+    </cacheField>
+    <cacheField name="Comission" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="151" maxValue="597.95000000000005"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="102">
   <r>
@@ -3350,9 +5579,1200 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="102">
+  <r>
+    <x v="0"/>
+    <s v="Los Angeles"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="372.55"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Los Angeles"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="561.05000000000007"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="476.25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="San Diego"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="199.3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="San Diego"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="583.35"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="San Francisco"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="582.45000000000005"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="San Diego"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="450.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Los Angeles"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="284.3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="San Francisco"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="456.05"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="San Francisco"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="435.15000000000003"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="San Diego"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="218.45000000000002"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Los Angeles"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="296.8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="San Diego"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="499.5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="San Diego"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="260.85000000000002"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="San Francisco"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="279.10000000000002"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Los Angeles"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="395.65000000000003"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="429.05"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="San Diego"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="373.6"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="San Francisco"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="235.8"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="San Diego"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="151"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="San Francisco"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="577.6"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Los Angeles"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="425.35"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="San Francisco"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="428.65000000000003"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="San Diego"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="241.35000000000002"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="San Diego"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="557.30000000000007"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="San Diego"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="544.9"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="San Francisco"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="521.20000000000005"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="Los Angeles"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="303.85000000000002"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="Los Angeles"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="245.4"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="232.60000000000002"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="San Diego"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="374.90000000000003"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="San Diego"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="232.05"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="San Diego"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="522"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="San Diego"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="208.4"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="San Francisco"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="201.55"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="San Francisco"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="201.55"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="San Diego"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="374.90000000000003"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="San Diego"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="415.25"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="San Francisco"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="239.4"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="San Diego"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="597.65"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="574.1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="San Diego"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="597.95000000000005"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="434.05"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="Los Angeles"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="519.95000000000005"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="Los Angeles"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="565.5"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="349.05"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="Los Angeles"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="437.90000000000003"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="San Diego"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="491.85"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="San Francisco"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="213.8"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="San Francisco"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="375.75"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="Los Angeles"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="524.85"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="429.35"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="Los Angeles"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="368.65000000000003"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="436.1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="280.35000000000002"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="551.45000000000005"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <s v="San Francisco"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="313.10000000000002"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="San Diego"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="471.6"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <s v="San Diego"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="334.25"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <s v="San Diego"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="195.65"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <s v="Los Angeles"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="382.1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <s v="San Diego"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="477.45000000000005"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <s v="San Diego"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="450.70000000000005"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <s v="San Francisco"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="369.5"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <s v="Los Angeles"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="169.5"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="233.5"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <s v="Los Angeles"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="426.75"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <s v="San Francisco"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="455.6"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="409.85"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <s v="Los Angeles"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="164.35000000000002"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <s v="Los Angeles"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="319.40000000000003"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <s v="San Diego"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="494.35"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <s v="Los Angeles"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="316.3"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <s v="Los Angeles"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="534.70000000000005"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="488.95000000000005"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <s v="San Francisco"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="507.85"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="264.3"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <s v="Los Angeles"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="425.8"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <s v="San Diego"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="358.85"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <s v="Los Angeles"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="315.60000000000002"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <s v="San Diego"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="277.3"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="264.7"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <s v="San Francisco"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="393.95000000000005"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="321.85000000000002"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <s v="San Diego"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="303.05"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <s v="San Francisco"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="388.15000000000003"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <s v="Los Angeles"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="288.05"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <s v="San Francisco"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="462.40000000000003"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <s v="San Francisco"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="545.95000000000005"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <s v="Los Angeles"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="574.9"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <s v="San Diego"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="447.5"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <s v="Los Angeles"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="456.65000000000003"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <s v="San Francisco"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="466.6"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <s v="Los Angeles"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="271.85000000000002"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <s v="San Diego"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="395.70000000000005"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <s v="Los Angeles"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="427.95000000000005"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <s v="San Francisco"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="White"/>
+    <n v="0.05"/>
+    <n v="413.70000000000005"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <s v="San Diego"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="Organic"/>
+    <n v="0.05"/>
+    <n v="193.85000000000002"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <s v="San Francisco"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="170.35000000000002"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <s v="San Diego"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Red"/>
+    <n v="0.05"/>
+    <n v="280.25"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="98"/>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="G29:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="V1:AC6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="100">
+        <item x="19"/>
+        <item x="67"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="95"/>
+        <item x="57"/>
+        <item x="3"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="46"/>
+        <item x="10"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item x="36"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="91"/>
+        <item x="78"/>
+        <item x="14"/>
+        <item x="97"/>
+        <item x="52"/>
+        <item x="7"/>
+        <item x="84"/>
+        <item x="11"/>
+        <item x="82"/>
+        <item x="27"/>
+        <item x="54"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="68"/>
+        <item x="81"/>
+        <item x="56"/>
+        <item x="43"/>
+        <item x="76"/>
+        <item x="50"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="30"/>
+        <item x="47"/>
+        <item x="58"/>
+        <item x="83"/>
+        <item x="80"/>
+        <item x="15"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="94"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="75"/>
+        <item x="64"/>
+        <item x="93"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="49"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="51"/>
+        <item x="44"/>
+        <item x="88"/>
+        <item x="6"/>
+        <item x="60"/>
+        <item x="65"/>
+        <item x="8"/>
+        <item x="89"/>
+        <item x="85"/>
+        <item x="90"/>
+        <item x="55"/>
+        <item x="2"/>
+        <item x="59"/>
+        <item x="72"/>
+        <item x="45"/>
+        <item x="69"/>
+        <item x="12"/>
+        <item x="73"/>
+        <item x="41"/>
+        <item x="26"/>
+        <item x="32"/>
+        <item x="48"/>
+        <item x="71"/>
+        <item x="25"/>
+        <item x="86"/>
+        <item x="53"/>
+        <item x="24"/>
+        <item x="1"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="87"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="37"/>
+        <item x="39"/>
+        <item x="98"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Comission" fld="6" baseField="3" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="I29:J33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
@@ -3392,7 +6812,7 @@
     <dataField name="Sum of Sales" fld="0" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3416,9 +6836,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="J4:K8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="L4:M8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -3489,7 +6909,7 @@
     <dataField name="Sum of Sales" fld="0" baseField="3" baseItem="0" numFmtId="5"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3513,9 +6933,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G1:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:J5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -3555,7 +6975,7 @@
     <dataField name="Sum of Sales" fld="0" baseField="3" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3831,10 +7251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3844,18 +7264,23 @@
     <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.7265625" customWidth="1"/>
-    <col min="19" max="26" width="7.54296875" customWidth="1"/>
+    <col min="6" max="7" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" customWidth="1"/>
+    <col min="14" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.7265625" customWidth="1"/>
+    <col min="21" max="21" width="7.54296875" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" customWidth="1"/>
+    <col min="23" max="23" width="15.26953125" customWidth="1"/>
+    <col min="24" max="28" width="6.36328125" customWidth="1"/>
+    <col min="29" max="29" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3871,20 +7296,32 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
+      <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>7451</v>
       </c>
@@ -3900,20 +7337,51 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="11">
+        <f>F2*A2</f>
+        <v>372.55</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9">
+      <c r="J2" s="9">
         <v>245921</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
+      <c r="V2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>11221</v>
       </c>
@@ -3929,14 +7397,45 @@
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G66" si="0">F3*A3</f>
+        <v>561.05000000000007</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9">
+      <c r="J3" s="9">
         <v>269805</v>
       </c>
+      <c r="V3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1726.0500000000002</v>
+      </c>
+      <c r="X3" s="9">
+        <v>2142</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1537.55</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>3189.85</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>2369.7000000000003</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>1330.8999999999999</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>12296.050000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>9525</v>
       </c>
@@ -3952,20 +7451,51 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>476.25</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9">
+      <c r="J4" s="9">
         <v>251513</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>22</v>
       </c>
+      <c r="V4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="9">
+        <v>2429.5</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1531.15</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>1909.9</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1932.5500000000002</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>2121.5500000000002</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>3565.6000000000004</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>13490.250000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3986</v>
       </c>
@@ -3981,20 +7511,51 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>199.3</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="9">
+      <c r="J5" s="9">
         <v>767239</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="10">
+      <c r="M5" s="10">
         <v>95536</v>
       </c>
+      <c r="V5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="9">
+        <v>3048.3</v>
+      </c>
+      <c r="X5" s="9">
+        <v>2699.75</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1610.3500000000001</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1664.45</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>1920.6</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>1632.2000000000003</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>12575.650000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>11667</v>
       </c>
@@ -4010,14 +7571,45 @@
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="F6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>583.35</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="10">
+      <c r="M6" s="10">
         <v>111937</v>
       </c>
+      <c r="V6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="9">
+        <v>7203.85</v>
+      </c>
+      <c r="X6" s="9">
+        <v>6372.9</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>5057.8</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>6786.8499999999995</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>6411.85</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>6528.7000000000007</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>38361.950000000004</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>11649</v>
       </c>
@@ -4033,14 +7625,21 @@
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="F7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>582.45000000000005</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="10">
+      <c r="M7" s="10">
         <v>91888</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>9010</v>
       </c>
@@ -4056,14 +7655,21 @@
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="F8" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>450.5</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10">
+      <c r="M8" s="10">
         <v>299361</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5686</v>
       </c>
@@ -4079,8 +7685,15 @@
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>284.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9121</v>
       </c>
@@ -4096,8 +7709,15 @@
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>456.05</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>8703</v>
       </c>
@@ -4113,8 +7733,15 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>435.15000000000003</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>4369</v>
       </c>
@@ -4130,8 +7757,15 @@
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F12" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>218.45000000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>5936</v>
       </c>
@@ -4147,8 +7781,15 @@
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>296.8</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>9990</v>
       </c>
@@ -4164,8 +7805,15 @@
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F14" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>499.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>5217</v>
       </c>
@@ -4181,8 +7829,15 @@
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>260.85000000000002</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>5582</v>
       </c>
@@ -4198,8 +7853,15 @@
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>279.10000000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>7913</v>
       </c>
@@ -4215,8 +7877,15 @@
       <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F17" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>395.65000000000003</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>8581</v>
       </c>
@@ -4232,8 +7901,15 @@
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F18" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>429.05</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>7472</v>
       </c>
@@ -4249,8 +7925,15 @@
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F19" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>373.6</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>4716</v>
       </c>
@@ -4266,8 +7949,15 @@
       <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F20" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>235.8</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>3020</v>
       </c>
@@ -4283,8 +7973,15 @@
       <c r="E21" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F21" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>11552</v>
       </c>
@@ -4300,8 +7997,15 @@
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F22" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>577.6</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>8507</v>
       </c>
@@ -4317,8 +8021,15 @@
       <c r="E23" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F23" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>425.35</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>8573</v>
       </c>
@@ -4334,8 +8045,15 @@
       <c r="E24" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F24" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>428.65000000000003</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>4827</v>
       </c>
@@ -4351,8 +8069,15 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>241.35000000000002</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>11146</v>
       </c>
@@ -4368,8 +8093,15 @@
       <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F26" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>557.30000000000007</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>10898</v>
       </c>
@@ -4385,8 +8117,15 @@
       <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F27" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="0"/>
+        <v>544.9</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>10424</v>
       </c>
@@ -4402,8 +8141,15 @@
       <c r="E28" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="0"/>
+        <v>521.20000000000005</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>6077</v>
       </c>
@@ -4419,14 +8165,21 @@
       <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="0"/>
+        <v>303.85000000000002</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>4908</v>
       </c>
@@ -4442,14 +8195,21 @@
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="0"/>
+        <v>245.4</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="9">
+      <c r="J30" s="9">
         <v>166174</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>4652</v>
       </c>
@@ -4465,14 +8225,21 @@
       <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="0"/>
+        <v>232.60000000000002</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="9">
+      <c r="J31" s="9">
         <v>299361</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>7498</v>
       </c>
@@ -4488,14 +8255,21 @@
       <c r="E32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="0"/>
+        <v>374.90000000000003</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="9">
+      <c r="J32" s="9">
         <v>301704</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>4641</v>
       </c>
@@ -4511,14 +8285,21 @@
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="F33" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="0"/>
+        <v>232.05</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="9">
+      <c r="J33" s="9">
         <v>767239</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>10440</v>
       </c>
@@ -4534,8 +8315,15 @@
       <c r="E34" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F34" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>4168</v>
       </c>
@@ -4551,8 +8339,15 @@
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F35" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="0"/>
+        <v>208.4</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>4031</v>
       </c>
@@ -4568,8 +8363,15 @@
       <c r="E36" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F36" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="0"/>
+        <v>201.55</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>4031</v>
       </c>
@@ -4585,8 +8387,15 @@
       <c r="E37" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F37" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="0"/>
+        <v>201.55</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>7498</v>
       </c>
@@ -4602,8 +8411,15 @@
       <c r="E38" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F38" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="0"/>
+        <v>374.90000000000003</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>8305</v>
       </c>
@@ -4619,8 +8435,15 @@
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F39" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="0"/>
+        <v>415.25</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>4788</v>
       </c>
@@ -4636,8 +8459,15 @@
       <c r="E40" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F40" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="0"/>
+        <v>239.4</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>11953</v>
       </c>
@@ -4653,8 +8483,15 @@
       <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F41" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="0"/>
+        <v>597.65</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>11482</v>
       </c>
@@ -4670,8 +8507,15 @@
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F42" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="0"/>
+        <v>574.1</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>11959</v>
       </c>
@@ -4687,8 +8531,15 @@
       <c r="E43" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F43" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="0"/>
+        <v>597.95000000000005</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>8681</v>
       </c>
@@ -4704,8 +8555,15 @@
       <c r="E44" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F44" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="0"/>
+        <v>434.05</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>10399</v>
       </c>
@@ -4721,8 +8579,15 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F45" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="0"/>
+        <v>519.95000000000005</v>
+      </c>
     </row>
-    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>11310</v>
       </c>
@@ -4738,8 +8603,15 @@
       <c r="E46" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F46" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="0"/>
+        <v>565.5</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>6981</v>
       </c>
@@ -4755,8 +8627,15 @@
       <c r="E47" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F47" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="0"/>
+        <v>349.05</v>
+      </c>
     </row>
-    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>8758</v>
       </c>
@@ -4772,8 +8651,15 @@
       <c r="E48" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F48" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="0"/>
+        <v>437.90000000000003</v>
+      </c>
     </row>
-    <row r="49" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>9837</v>
       </c>
@@ -4789,8 +8675,15 @@
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F49" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="0"/>
+        <v>491.85</v>
+      </c>
     </row>
-    <row r="50" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>4276</v>
       </c>
@@ -4806,8 +8699,15 @@
       <c r="E50" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F50" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="0"/>
+        <v>213.8</v>
+      </c>
     </row>
-    <row r="51" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>7515</v>
       </c>
@@ -4823,8 +8723,15 @@
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F51" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="0"/>
+        <v>375.75</v>
+      </c>
     </row>
-    <row r="52" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>10497</v>
       </c>
@@ -4840,8 +8747,15 @@
       <c r="E52" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F52" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="0"/>
+        <v>524.85</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>8587</v>
       </c>
@@ -4857,8 +8771,15 @@
       <c r="E53" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F53" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="0"/>
+        <v>429.35</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>7373</v>
       </c>
@@ -4874,8 +8795,15 @@
       <c r="E54" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F54" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="0"/>
+        <v>368.65000000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>8722</v>
       </c>
@@ -4891,8 +8819,15 @@
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F55" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="0"/>
+        <v>436.1</v>
+      </c>
     </row>
-    <row r="56" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>5607</v>
       </c>
@@ -4908,8 +8843,15 @@
       <c r="E56" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F56" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="0"/>
+        <v>280.35000000000002</v>
+      </c>
     </row>
-    <row r="57" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>11029</v>
       </c>
@@ -4925,8 +8867,15 @@
       <c r="E57" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F57" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="0"/>
+        <v>551.45000000000005</v>
+      </c>
     </row>
-    <row r="58" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>6262</v>
       </c>
@@ -4942,8 +8891,15 @@
       <c r="E58" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F58" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="0"/>
+        <v>313.10000000000002</v>
+      </c>
     </row>
-    <row r="59" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>9432</v>
       </c>
@@ -4959,8 +8915,15 @@
       <c r="E59" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F59" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G59" s="11">
+        <f t="shared" si="0"/>
+        <v>471.6</v>
+      </c>
     </row>
-    <row r="60" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>6685</v>
       </c>
@@ -4976,8 +8939,15 @@
       <c r="E60" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F60" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="0"/>
+        <v>334.25</v>
+      </c>
     </row>
-    <row r="61" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>3913</v>
       </c>
@@ -4993,8 +8963,15 @@
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F61" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G61" s="11">
+        <f t="shared" si="0"/>
+        <v>195.65</v>
+      </c>
     </row>
-    <row r="62" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>7642</v>
       </c>
@@ -5010,8 +8987,15 @@
       <c r="E62" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F62" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G62" s="11">
+        <f t="shared" si="0"/>
+        <v>382.1</v>
+      </c>
     </row>
-    <row r="63" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>9549</v>
       </c>
@@ -5027,8 +9011,15 @@
       <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F63" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G63" s="11">
+        <f t="shared" si="0"/>
+        <v>477.45000000000005</v>
+      </c>
     </row>
-    <row r="64" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>9014</v>
       </c>
@@ -5044,8 +9035,15 @@
       <c r="E64" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F64" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="0"/>
+        <v>450.70000000000005</v>
+      </c>
     </row>
-    <row r="65" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>7390</v>
       </c>
@@ -5061,8 +9059,15 @@
       <c r="E65" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F65" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G65" s="11">
+        <f t="shared" si="0"/>
+        <v>369.5</v>
+      </c>
     </row>
-    <row r="66" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>3390</v>
       </c>
@@ -5078,8 +9083,15 @@
       <c r="E66" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F66" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G66" s="11">
+        <f t="shared" si="0"/>
+        <v>169.5</v>
+      </c>
     </row>
-    <row r="67" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>4670</v>
       </c>
@@ -5095,8 +9107,15 @@
       <c r="E67" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F67" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" ref="G67:G101" si="1">F67*A67</f>
+        <v>233.5</v>
+      </c>
     </row>
-    <row r="68" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>8535</v>
       </c>
@@ -5112,8 +9131,15 @@
       <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F68" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="1"/>
+        <v>426.75</v>
+      </c>
     </row>
-    <row r="69" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>9112</v>
       </c>
@@ -5129,8 +9155,15 @@
       <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F69" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G69" s="11">
+        <f t="shared" si="1"/>
+        <v>455.6</v>
+      </c>
     </row>
-    <row r="70" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>8197</v>
       </c>
@@ -5146,8 +9179,15 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F70" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" si="1"/>
+        <v>409.85</v>
+      </c>
     </row>
-    <row r="71" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>3287</v>
       </c>
@@ -5163,8 +9203,15 @@
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F71" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G71" s="11">
+        <f t="shared" si="1"/>
+        <v>164.35000000000002</v>
+      </c>
     </row>
-    <row r="72" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>6388</v>
       </c>
@@ -5180,8 +9227,15 @@
       <c r="E72" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F72" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G72" s="11">
+        <f t="shared" si="1"/>
+        <v>319.40000000000003</v>
+      </c>
     </row>
-    <row r="73" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>9887</v>
       </c>
@@ -5197,8 +9251,15 @@
       <c r="E73" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F73" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G73" s="11">
+        <f t="shared" si="1"/>
+        <v>494.35</v>
+      </c>
     </row>
-    <row r="74" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>6326</v>
       </c>
@@ -5214,8 +9275,15 @@
       <c r="E74" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F74" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G74" s="11">
+        <f t="shared" si="1"/>
+        <v>316.3</v>
+      </c>
     </row>
-    <row r="75" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>10694</v>
       </c>
@@ -5231,8 +9299,15 @@
       <c r="E75" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F75" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G75" s="11">
+        <f t="shared" si="1"/>
+        <v>534.70000000000005</v>
+      </c>
     </row>
-    <row r="76" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>9779</v>
       </c>
@@ -5248,8 +9323,15 @@
       <c r="E76" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F76" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G76" s="11">
+        <f t="shared" si="1"/>
+        <v>488.95000000000005</v>
+      </c>
     </row>
-    <row r="77" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>10157</v>
       </c>
@@ -5265,8 +9347,15 @@
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F77" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G77" s="11">
+        <f t="shared" si="1"/>
+        <v>507.85</v>
+      </c>
     </row>
-    <row r="78" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>5286</v>
       </c>
@@ -5282,8 +9371,15 @@
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F78" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G78" s="11">
+        <f t="shared" si="1"/>
+        <v>264.3</v>
+      </c>
     </row>
-    <row r="79" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>8516</v>
       </c>
@@ -5299,8 +9395,15 @@
       <c r="E79" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F79" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G79" s="11">
+        <f t="shared" si="1"/>
+        <v>425.8</v>
+      </c>
     </row>
-    <row r="80" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>7177</v>
       </c>
@@ -5316,8 +9419,15 @@
       <c r="E80" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F80" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G80" s="11">
+        <f t="shared" si="1"/>
+        <v>358.85</v>
+      </c>
     </row>
-    <row r="81" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>6312</v>
       </c>
@@ -5333,8 +9443,15 @@
       <c r="E81" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F81" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G81" s="11">
+        <f t="shared" si="1"/>
+        <v>315.60000000000002</v>
+      </c>
     </row>
-    <row r="82" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>5546</v>
       </c>
@@ -5350,8 +9467,15 @@
       <c r="E82" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F82" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G82" s="11">
+        <f t="shared" si="1"/>
+        <v>277.3</v>
+      </c>
     </row>
-    <row r="83" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>5294</v>
       </c>
@@ -5367,8 +9491,15 @@
       <c r="E83" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F83" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G83" s="11">
+        <f t="shared" si="1"/>
+        <v>264.7</v>
+      </c>
     </row>
-    <row r="84" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>7879</v>
       </c>
@@ -5384,8 +9515,15 @@
       <c r="E84" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F84" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G84" s="11">
+        <f t="shared" si="1"/>
+        <v>393.95000000000005</v>
+      </c>
     </row>
-    <row r="85" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>6437</v>
       </c>
@@ -5401,8 +9539,15 @@
       <c r="E85" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F85" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G85" s="11">
+        <f t="shared" si="1"/>
+        <v>321.85000000000002</v>
+      </c>
     </row>
-    <row r="86" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>6061</v>
       </c>
@@ -5418,8 +9563,15 @@
       <c r="E86" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F86" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G86" s="11">
+        <f t="shared" si="1"/>
+        <v>303.05</v>
+      </c>
     </row>
-    <row r="87" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>7763</v>
       </c>
@@ -5435,8 +9587,15 @@
       <c r="E87" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F87" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G87" s="11">
+        <f t="shared" si="1"/>
+        <v>388.15000000000003</v>
+      </c>
     </row>
-    <row r="88" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>5761</v>
       </c>
@@ -5452,8 +9611,15 @@
       <c r="E88" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F88" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G88" s="11">
+        <f t="shared" si="1"/>
+        <v>288.05</v>
+      </c>
     </row>
-    <row r="89" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>9248</v>
       </c>
@@ -5469,8 +9635,15 @@
       <c r="E89" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F89" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G89" s="11">
+        <f t="shared" si="1"/>
+        <v>462.40000000000003</v>
+      </c>
     </row>
-    <row r="90" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>10919</v>
       </c>
@@ -5486,8 +9659,15 @@
       <c r="E90" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F90" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G90" s="11">
+        <f t="shared" si="1"/>
+        <v>545.95000000000005</v>
+      </c>
     </row>
-    <row r="91" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>11498</v>
       </c>
@@ -5503,8 +9683,15 @@
       <c r="E91" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F91" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G91" s="11">
+        <f t="shared" si="1"/>
+        <v>574.9</v>
+      </c>
     </row>
-    <row r="92" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>8950</v>
       </c>
@@ -5520,8 +9707,15 @@
       <c r="E92" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F92" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G92" s="11">
+        <f t="shared" si="1"/>
+        <v>447.5</v>
+      </c>
     </row>
-    <row r="93" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>9133</v>
       </c>
@@ -5537,8 +9731,15 @@
       <c r="E93" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F93" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G93" s="11">
+        <f t="shared" si="1"/>
+        <v>456.65000000000003</v>
+      </c>
     </row>
-    <row r="94" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>9332</v>
       </c>
@@ -5554,8 +9755,15 @@
       <c r="E94" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F94" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G94" s="11">
+        <f t="shared" si="1"/>
+        <v>466.6</v>
+      </c>
     </row>
-    <row r="95" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>5437</v>
       </c>
@@ -5571,8 +9779,15 @@
       <c r="E95" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F95" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G95" s="11">
+        <f t="shared" si="1"/>
+        <v>271.85000000000002</v>
+      </c>
     </row>
-    <row r="96" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>7914</v>
       </c>
@@ -5588,8 +9803,15 @@
       <c r="E96" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F96" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G96" s="11">
+        <f t="shared" si="1"/>
+        <v>395.70000000000005</v>
+      </c>
     </row>
-    <row r="97" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>8559</v>
       </c>
@@ -5605,8 +9827,15 @@
       <c r="E97" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F97" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G97" s="11">
+        <f t="shared" si="1"/>
+        <v>427.95000000000005</v>
+      </c>
     </row>
-    <row r="98" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>8274</v>
       </c>
@@ -5622,8 +9851,15 @@
       <c r="E98" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F98" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G98" s="11">
+        <f t="shared" si="1"/>
+        <v>413.70000000000005</v>
+      </c>
     </row>
-    <row r="99" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>3877</v>
       </c>
@@ -5639,8 +9875,15 @@
       <c r="E99" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F99" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G99" s="11">
+        <f t="shared" si="1"/>
+        <v>193.85000000000002</v>
+      </c>
     </row>
-    <row r="100" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>3407</v>
       </c>
@@ -5656,8 +9899,15 @@
       <c r="E100" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F100" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G100" s="11">
+        <f t="shared" si="1"/>
+        <v>170.35000000000002</v>
+      </c>
     </row>
-    <row r="101" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>5605</v>
       </c>
@@ -5673,15 +9923,22 @@
       <c r="E101" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F101" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G101" s="11">
+        <f t="shared" si="1"/>
+        <v>280.25</v>
+      </c>
     </row>
-    <row r="102" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="D102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5692,6 +9949,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010019267F6D1A260A4394C18F5AF72445EA" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6a723735a0ade9a92961b83aee31dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e345bd7673956a623930e5662e321f3a">
     <xsd:element name="properties">
@@ -5805,15 +10071,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0AE4525-174E-47F5-9A7D-A26EE9EE4B7F}">
   <ds:schemaRefs>
@@ -5830,6 +10087,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D965E5A-4ACF-49AB-A334-D94885C37A98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5F2B668-4763-46CF-A627-E2AB848871EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5843,12 +10108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D965E5A-4ACF-49AB-A334-D94885C37A98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>